--- a/MainTop/17.03..2025/всего.xlsx
+++ b/MainTop/17.03..2025/всего.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\17.03..2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256D09FB-5B29-45B5-A1B0-6B9CAD1777C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CB44B0-7D29-491E-B21C-7B35152510C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="375">
   <si>
     <t>артикул</t>
   </si>
@@ -1089,13 +1089,70 @@
   </si>
   <si>
     <t>Артикул</t>
+  </si>
+  <si>
+    <t>Г1</t>
+  </si>
+  <si>
+    <t>Г2</t>
+  </si>
+  <si>
+    <t>Г3</t>
+  </si>
+  <si>
+    <t>Г4</t>
+  </si>
+  <si>
+    <t>Г5</t>
+  </si>
+  <si>
+    <t>Г6</t>
+  </si>
+  <si>
+    <t>Г7</t>
+  </si>
+  <si>
+    <t>Г8</t>
+  </si>
+  <si>
+    <t>Г9</t>
+  </si>
+  <si>
+    <t>Г10</t>
+  </si>
+  <si>
+    <t>Г11</t>
+  </si>
+  <si>
+    <t>Г12</t>
+  </si>
+  <si>
+    <t>Г13</t>
+  </si>
+  <si>
+    <t>Г14</t>
+  </si>
+  <si>
+    <t>Г15</t>
+  </si>
+  <si>
+    <t>Г16</t>
+  </si>
+  <si>
+    <t>Г17</t>
+  </si>
+  <si>
+    <t>Г18</t>
+  </si>
+  <si>
+    <t>Г19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1112,8 +1169,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1150,6 +1212,48 @@
         <bgColor rgb="FF99FF99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1178,7 +1282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1190,7 +1294,30 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -13598,7 +13725,7 @@
   <dimension ref="A1:T158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13629,62 +13756,62 @@
       <c r="A1" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>336</v>
+      <c r="B1" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
